--- a/Iliad_battles.xlsx
+++ b/Iliad_battles.xlsx
@@ -1471,7 +1471,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1508,12 +1508,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1535,7 +1529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1570,9 +1564,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1879,8 +1870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H286"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A49" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5055,10 +5046,10 @@
       </c>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="15" t="s">
+      <c r="A123" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B123" s="15" t="s">
+      <c r="B123" s="14" t="s">
         <v>235</v>
       </c>
       <c r="C123" s="4" t="s">
@@ -5364,7 +5355,7 @@
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="14" t="s">
+      <c r="A135" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B135" s="9" t="s">
@@ -6679,7 +6670,7 @@
       <c r="G185" s="6">
         <v>16.114000000000001</v>
       </c>
-      <c r="H185" s="16" t="s">
+      <c r="H185" s="15" t="s">
         <v>351</v>
       </c>
     </row>
@@ -8732,7 +8723,7 @@
       <c r="A273" s="1"/>
     </row>
     <row r="274" spans="1:1">
-      <c r="A274" s="13"/>
+      <c r="A274" s="1"/>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" s="1"/>

--- a/Iliad_battles.xlsx
+++ b/Iliad_battles.xlsx
@@ -1203,9 +1203,6 @@
     <t>Sthenelaos killed stone to the neck (16.586-7)</t>
   </si>
   <si>
-    <t>Glaukos son of Hippolochos</t>
-  </si>
-  <si>
     <t>Bathykles, son of Chalkon</t>
   </si>
   <si>
@@ -1462,6 +1459,9 @@
   </si>
   <si>
     <t>Thoas the Aitolian</t>
+  </si>
+  <si>
+    <t>Glaukos, son of Hippolochos</t>
   </si>
 </sst>
 </file>
@@ -1870,8 +1870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A49" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="A213" sqref="A213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>25</v>
@@ -7352,10 +7352,10 @@
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="B212" s="9" t="s">
         <v>395</v>
-      </c>
-      <c r="B212" s="9" t="s">
-        <v>396</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>3</v>
@@ -7373,7 +7373,7 @@
         <v>16.597000000000001</v>
       </c>
       <c r="H212" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7381,7 +7381,7 @@
         <v>47</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>2</v>
@@ -7399,7 +7399,7 @@
         <v>16.603000000000002</v>
       </c>
       <c r="H213" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7425,7 +7425,7 @@
         <v>16.693000000000001</v>
       </c>
       <c r="H214" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7451,7 +7451,7 @@
         <v>16.693000000000001</v>
       </c>
       <c r="H215" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7459,7 +7459,7 @@
         <v>352</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>2</v>
@@ -7477,7 +7477,7 @@
         <v>16.693000000000001</v>
       </c>
       <c r="H216" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7485,7 +7485,7 @@
         <v>352</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>2</v>
@@ -7503,7 +7503,7 @@
         <v>16.693000000000001</v>
       </c>
       <c r="H217" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7511,7 +7511,7 @@
         <v>352</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>2</v>
@@ -7529,7 +7529,7 @@
         <v>16.693000000000001</v>
       </c>
       <c r="H218" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7555,7 +7555,7 @@
         <v>16.693000000000001</v>
       </c>
       <c r="H219" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7563,7 +7563,7 @@
         <v>352</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>2</v>
@@ -7581,7 +7581,7 @@
         <v>16.693000000000001</v>
       </c>
       <c r="H220" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7589,7 +7589,7 @@
         <v>352</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>2</v>
@@ -7607,7 +7607,7 @@
         <v>16.693000000000001</v>
       </c>
       <c r="H221" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7633,7 +7633,7 @@
         <v>16.693000000000001</v>
       </c>
       <c r="H222" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7641,7 +7641,7 @@
         <v>352</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>2</v>
@@ -7659,7 +7659,7 @@
         <v>16.733000000000001</v>
       </c>
       <c r="H223" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="27" customHeight="1">
@@ -7667,7 +7667,7 @@
         <v>352</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>2</v>
@@ -7685,7 +7685,7 @@
         <v>16.783000000000001</v>
       </c>
       <c r="H224" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7693,7 +7693,7 @@
         <v>44</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>2</v>
@@ -7711,7 +7711,7 @@
         <v>17.042999999999999</v>
       </c>
       <c r="H225" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7719,7 +7719,7 @@
         <v>44</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>2</v>
@@ -7737,7 +7737,7 @@
         <v>17.288</v>
       </c>
       <c r="H226" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="25.5">
@@ -7745,7 +7745,7 @@
         <v>88</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>3</v>
@@ -7763,7 +7763,7 @@
         <v>17.303999999999998</v>
       </c>
       <c r="H227" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7771,7 +7771,7 @@
         <v>14</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>2</v>
@@ -7789,7 +7789,7 @@
         <v>17.312000000000001</v>
       </c>
       <c r="H228" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7797,7 +7797,7 @@
         <v>72</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>3</v>
@@ -7815,15 +7815,15 @@
         <v>17.344000000000001</v>
       </c>
       <c r="H229" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="B230" s="8" t="s">
         <v>420</v>
-      </c>
-      <c r="B230" s="8" t="s">
-        <v>421</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>2</v>
@@ -7841,15 +7841,15 @@
         <v>17.346</v>
       </c>
       <c r="H230" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="B231" s="8" t="s">
         <v>423</v>
-      </c>
-      <c r="B231" s="8" t="s">
-        <v>424</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>2</v>
@@ -7867,7 +7867,7 @@
         <v>17.515000000000001</v>
       </c>
       <c r="H231" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7875,7 +7875,7 @@
         <v>44</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>2</v>
@@ -7893,7 +7893,7 @@
         <v>17.574999999999999</v>
       </c>
       <c r="H232" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7919,7 +7919,7 @@
         <v>17.597000000000001</v>
       </c>
       <c r="H233" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7927,7 +7927,7 @@
         <v>88</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>3</v>
@@ -7945,7 +7945,7 @@
         <v>17.600999999999999</v>
       </c>
       <c r="H234" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7953,7 +7953,7 @@
         <v>88</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>3</v>
@@ -7971,12 +7971,12 @@
         <v>17.611000000000001</v>
       </c>
       <c r="H235" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="25.5">
       <c r="A236" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B236" s="9" t="s">
         <v>72</v>
@@ -7994,15 +7994,15 @@
         <v>20.318000000000001</v>
       </c>
       <c r="H236" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>2</v>
@@ -8020,15 +8020,15 @@
         <v>20.381</v>
       </c>
       <c r="H237" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>2</v>
@@ -8046,15 +8046,15 @@
         <v>20.395</v>
       </c>
       <c r="H238" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>2</v>
@@ -8072,15 +8072,15 @@
         <v>20.401</v>
       </c>
       <c r="H239" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>2</v>
@@ -8098,12 +8098,12 @@
         <v>20.407</v>
       </c>
       <c r="H240" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B241" s="9" t="s">
         <v>88</v>
@@ -8121,15 +8121,15 @@
         <v>20.437999999999999</v>
       </c>
       <c r="H241" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>2</v>
@@ -8147,15 +8147,15 @@
         <v>20.454999999999998</v>
       </c>
       <c r="H242" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>2</v>
@@ -8173,15 +8173,15 @@
         <v>20.457000000000001</v>
       </c>
       <c r="H243" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>2</v>
@@ -8199,15 +8199,15 @@
         <v>20.465</v>
       </c>
       <c r="H244" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>2</v>
@@ -8225,15 +8225,15 @@
         <v>20.472000000000001</v>
       </c>
       <c r="H245" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>2</v>
@@ -8251,15 +8251,15 @@
         <v>20.474</v>
       </c>
       <c r="H246" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>2</v>
@@ -8277,15 +8277,15 @@
         <v>20.477</v>
       </c>
       <c r="H247" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>2</v>
@@ -8303,15 +8303,15 @@
         <v>20.484000000000002</v>
       </c>
       <c r="H248" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>2</v>
@@ -8329,15 +8329,15 @@
         <v>20.486999999999998</v>
       </c>
       <c r="H249" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>2</v>
@@ -8355,15 +8355,15 @@
         <v>21.114000000000001</v>
       </c>
       <c r="H250" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>2</v>
@@ -8381,15 +8381,15 @@
         <v>21.178999999999998</v>
       </c>
       <c r="H251" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>2</v>
@@ -8407,15 +8407,15 @@
         <v>21.209</v>
       </c>
       <c r="H252" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>2</v>
@@ -8433,15 +8433,15 @@
         <v>21.209</v>
       </c>
       <c r="H253" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>2</v>
@@ -8459,15 +8459,15 @@
         <v>21.209</v>
       </c>
       <c r="H254" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>2</v>
@@ -8485,15 +8485,15 @@
         <v>21.209</v>
       </c>
       <c r="H255" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="256" spans="1:8">
       <c r="A256" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B256" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>2</v>
@@ -8511,15 +8511,15 @@
         <v>21.209</v>
       </c>
       <c r="H256" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="257" spans="1:8">
       <c r="A257" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B257" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>2</v>
@@ -8537,12 +8537,12 @@
         <v>21.209</v>
       </c>
       <c r="H257" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="258" spans="1:8">
       <c r="A258" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B258" s="9" t="s">
         <v>161</v>
@@ -8563,15 +8563,15 @@
         <v>21.209</v>
       </c>
       <c r="H258" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="259" spans="1:8" ht="25.5">
       <c r="A259" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="B259" s="9" t="s">
         <v>470</v>
-      </c>
-      <c r="B259" s="9" t="s">
-        <v>471</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>117</v>
@@ -8586,12 +8586,12 @@
         <v>21.341999999999999</v>
       </c>
       <c r="H259" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="260" spans="1:8">
       <c r="A260" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B260" s="9" t="s">
         <v>113</v>
@@ -8612,12 +8612,12 @@
         <v>21.402000000000001</v>
       </c>
       <c r="H260" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="261" spans="1:8">
       <c r="A261" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B261" s="9" t="s">
         <v>74</v>
@@ -8638,15 +8638,15 @@
         <v>21.422999999999998</v>
       </c>
       <c r="H261" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="262" spans="1:8">
       <c r="A262" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="B262" s="9" t="s">
         <v>476</v>
-      </c>
-      <c r="B262" s="9" t="s">
-        <v>477</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>117</v>
@@ -8664,12 +8664,12 @@
         <v>21.489000000000001</v>
       </c>
       <c r="H262" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="263" spans="1:8" ht="25.5">
       <c r="A263" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B263" s="9" t="s">
         <v>13</v>
@@ -8687,12 +8687,12 @@
         <v>21.59</v>
       </c>
       <c r="H263" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="264" spans="1:8" ht="27" customHeight="1">
       <c r="A264" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B264" s="9" t="s">
         <v>88</v>
@@ -8713,7 +8713,7 @@
         <v>22.306000000000001</v>
       </c>
       <c r="H264" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="272" spans="1:8">

--- a/Iliad_battles.xlsx
+++ b/Iliad_battles.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="480">
   <si>
     <t>Winner</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Elephanor, leader of the Abantes</t>
   </si>
   <si>
-    <t>Antilochos, son of Nestor</t>
-  </si>
-  <si>
     <t>Menelaos, son of Atreus</t>
   </si>
   <si>
@@ -792,9 +789,6 @@
     <t>Othryoneus</t>
   </si>
   <si>
-    <t>Idomeneus, son of Deukalion &amp; Antilochos, son of Nestor</t>
-  </si>
-  <si>
     <t>Asios, son of Hyrtakos</t>
   </si>
   <si>
@@ -1239,9 +1233,6 @@
     <t>Kebriones killed by stone originally intended for Hektor to the forehead (16.733-43)</t>
   </si>
   <si>
-    <t>Phoibos Apollo, son of Zeus; Euphorbos, son of Panthoös; &amp; Hektor, son of Priam</t>
-  </si>
-  <si>
     <t>Patroklos stunned and dazed by an attack from Apollo, then severely wounded by Euphorbos. Patroklos finally killed by Hektor's spear to the belly (16.783-822)</t>
   </si>
   <si>
@@ -1458,10 +1449,13 @@
     <t>Hektor mortally wounded by spear to the throat, but the strike misses his windpipe.  He urges Achilleus to give his body to the Trojans to bury, but Achilleus refuses (22.306-360) and proceeds to drag his body around the city</t>
   </si>
   <si>
-    <t>Thoas the Aitolian</t>
-  </si>
-  <si>
-    <t>Glaukos, son of Hippolochos</t>
+    <t>Phoibos Apollo, son of Zeus &amp; Euphorbos, son of Panthoös &amp; Hektor, son of Priam</t>
+  </si>
+  <si>
+    <t>Idomeneus, son of Deukalion &amp; Antilochos, son of Nestor</t>
+  </si>
+  <si>
+    <t>Thoas the Aitolian</t>
   </si>
 </sst>
 </file>
@@ -1870,7 +1864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
       <selection activeCell="A213" sqref="A213"/>
     </sheetView>
   </sheetViews>
@@ -1887,25 +1881,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>32</v>
-      </c>
       <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>1</v>
@@ -1913,10 +1907,10 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
@@ -1936,10 +1930,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>2</v>
@@ -1951,7 +1945,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G3" s="5">
         <v>4.4569999999999999</v>
@@ -1965,7 +1959,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>2</v>
@@ -1977,22 +1971,22 @@
         <v>3</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4" s="6">
         <v>4.4649999999999999</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>15</v>
-      </c>
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
@@ -2003,22 +1997,22 @@
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5" s="6">
         <v>4.4790000000000001</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>18</v>
-      </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
@@ -2029,22 +2023,22 @@
         <v>3</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G6" s="6">
         <v>4.4889999999999999</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>21</v>
-      </c>
       <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
@@ -2055,21 +2049,21 @@
         <v>2</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" s="6">
         <v>4.4989999999999997</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>2</v>
@@ -2081,21 +2075,21 @@
         <v>3</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G8" s="6">
         <v>4.5209999999999999</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>2</v>
@@ -2107,21 +2101,21 @@
         <v>2</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9" s="6">
         <v>4.5270000000000001</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>2</v>
@@ -2133,21 +2127,21 @@
         <v>2</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G10" s="6">
         <v>5.0090000000000003</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>2</v>
@@ -2159,22 +2153,22 @@
         <v>2</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" s="6">
         <v>5.0229999999999997</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>39</v>
-      </c>
       <c r="C12" s="4" t="s">
         <v>2</v>
       </c>
@@ -2185,22 +2179,22 @@
         <v>2</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" s="6">
         <v>5.0380000000000003</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>42</v>
-      </c>
       <c r="C13" s="4" t="s">
         <v>2</v>
       </c>
@@ -2211,22 +2205,22 @@
         <v>2</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G13" s="6">
         <v>5.0430000000000001</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>45</v>
-      </c>
       <c r="C14" s="4" t="s">
         <v>2</v>
       </c>
@@ -2237,21 +2231,21 @@
         <v>2</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G14" s="6">
         <v>5.0490000000000004</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>2</v>
@@ -2263,21 +2257,21 @@
         <v>2</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" s="6">
         <v>5.0590000000000002</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>2</v>
@@ -2289,22 +2283,22 @@
         <v>2</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G16" s="6">
         <v>5.069</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="C17" s="4" t="s">
         <v>2</v>
       </c>
@@ -2315,21 +2309,21 @@
         <v>2</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G17" s="6">
         <v>5.0759999999999996</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>2</v>
@@ -2341,21 +2335,21 @@
         <v>2</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G18" s="6">
         <v>5.1449999999999996</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>2</v>
@@ -2367,21 +2361,21 @@
         <v>2</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G19" s="6">
         <v>5.1459999999999999</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>2</v>
@@ -2393,21 +2387,21 @@
         <v>2</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G20" s="6">
         <v>5.1479999999999997</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>2</v>
@@ -2419,21 +2413,21 @@
         <v>2</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G21" s="6">
         <v>5.1479999999999997</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>2</v>
@@ -2445,21 +2439,21 @@
         <v>2</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G22" s="6">
         <v>5.1509999999999998</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>2</v>
@@ -2471,21 +2465,21 @@
         <v>2</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G23" s="6">
         <v>5.1509999999999998</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>2</v>
@@ -2497,21 +2491,21 @@
         <v>2</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G24" s="6">
         <v>5.1589999999999998</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>2</v>
@@ -2523,21 +2517,21 @@
         <v>2</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G25" s="6">
         <v>5.1589999999999998</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="25.5">
       <c r="A26" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>2</v>
@@ -2549,21 +2543,21 @@
         <v>2</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G26" s="6">
         <v>5.29</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="25.5">
       <c r="A27" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>2</v>
@@ -2575,53 +2569,53 @@
         <v>2</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G27" s="6">
         <v>5.2969999999999997</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="25.5">
       <c r="A28" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G28" s="6">
         <v>5.3360000000000003</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>4</v>
@@ -2630,15 +2624,15 @@
         <v>5.431</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>2</v>
@@ -2650,21 +2644,21 @@
         <v>2</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G30" s="6">
         <v>5.532</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>3</v>
@@ -2676,21 +2670,21 @@
         <v>3</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G31" s="6">
         <v>5.5410000000000004</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>3</v>
@@ -2702,21 +2696,21 @@
         <v>3</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G32" s="6">
         <v>5.5410000000000004</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>2</v>
@@ -2728,22 +2722,22 @@
         <v>2</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G33" s="6">
         <v>5.5750000000000002</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>86</v>
-      </c>
       <c r="C34" s="4" t="s">
         <v>2</v>
       </c>
@@ -2754,21 +2748,21 @@
         <v>2</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G34" s="6">
         <v>5.58</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>3</v>
@@ -2780,21 +2774,21 @@
         <v>3</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G35" s="6">
         <v>5.6079999999999997</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>3</v>
@@ -2806,21 +2800,21 @@
         <v>3</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G36" s="6">
         <v>5.6079999999999997</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>2</v>
@@ -2832,22 +2826,22 @@
         <v>2</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G37" s="6">
         <v>5.61</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="25.5">
       <c r="A38" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="C38" s="4" t="s">
         <v>2</v>
       </c>
@@ -2858,21 +2852,21 @@
         <v>3</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G38" s="6">
         <v>5.6550000000000002</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>2</v>
@@ -2884,21 +2878,21 @@
         <v>2</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G39" s="6">
         <v>5.6760000000000002</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>2</v>
@@ -2910,21 +2904,21 @@
         <v>2</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G40" s="6">
         <v>5.6760000000000002</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>2</v>
@@ -2936,21 +2930,21 @@
         <v>2</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G41" s="6">
         <v>5.6760000000000002</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>2</v>
@@ -2962,21 +2956,21 @@
         <v>2</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G42" s="6">
         <v>5.6760000000000002</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>2</v>
@@ -2988,21 +2982,21 @@
         <v>2</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G43" s="6">
         <v>5.6760000000000002</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>2</v>
@@ -3014,21 +3008,21 @@
         <v>2</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G44" s="6">
         <v>5.6760000000000002</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>2</v>
@@ -3040,203 +3034,203 @@
         <v>2</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G45" s="6">
         <v>5.6760000000000002</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="25.5">
       <c r="A46" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="D46" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G46" s="6">
         <v>5.7030000000000003</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="25.5">
       <c r="A47" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="D47" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G47" s="6">
         <v>5.7030000000000003</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="25.5">
       <c r="A48" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="D48" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G48" s="6">
         <v>5.7030000000000003</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="25.5">
       <c r="A49" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="D49" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G49" s="6">
         <v>5.7030000000000003</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="25.5">
       <c r="A50" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="D50" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G50" s="6">
         <v>5.7030000000000003</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>114</v>
-      </c>
       <c r="C51" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G51" s="6">
         <v>5.8419999999999996</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="25.5">
       <c r="A52" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B52" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="E52" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G52" s="6">
         <v>5.8550000000000004</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>2</v>
@@ -3248,21 +3242,21 @@
         <v>2</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G53" s="6">
         <v>6.0049999999999999</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>2</v>
@@ -3274,21 +3268,21 @@
         <v>2</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G54" s="6">
         <v>6.0119999999999996</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>2</v>
@@ -3300,21 +3294,21 @@
         <v>2</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G55" s="6">
         <v>6.02</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>2</v>
@@ -3326,22 +3320,22 @@
         <v>2</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G56" s="6">
         <v>6.02</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>128</v>
-      </c>
       <c r="C57" s="4" t="s">
         <v>2</v>
       </c>
@@ -3352,21 +3346,21 @@
         <v>2</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G57" s="6">
         <v>6.0289999999999999</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>2</v>
@@ -3378,22 +3372,22 @@
         <v>2</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G58" s="6">
         <v>6.03</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>133</v>
-      </c>
       <c r="C59" s="4" t="s">
         <v>2</v>
       </c>
@@ -3404,21 +3398,21 @@
         <v>2</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G59" s="6">
         <v>6.0309999999999997</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>2</v>
@@ -3430,21 +3424,21 @@
         <v>2</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G60" s="6">
         <v>6.032</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>2</v>
@@ -3456,22 +3450,22 @@
         <v>2</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G61" s="6">
         <v>6.0330000000000004</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>140</v>
-      </c>
       <c r="C62" s="4" t="s">
         <v>2</v>
       </c>
@@ -3482,21 +3476,21 @@
         <v>2</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G62" s="6">
         <v>6.0350000000000001</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>2</v>
@@ -3508,21 +3502,21 @@
         <v>2</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G63" s="6">
         <v>6.0359999999999996</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="25.5">
       <c r="A64" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>2</v>
@@ -3534,21 +3528,21 @@
         <v>2</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G64" s="6">
         <v>6.0369999999999999</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="25.5">
       <c r="A65" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>3</v>
@@ -3563,15 +3557,15 @@
         <v>6.1189999999999998</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>3</v>
@@ -3583,21 +3577,21 @@
         <v>3</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G66" s="6">
         <v>7.0090000000000003</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>3</v>
@@ -3609,22 +3603,22 @@
         <v>3</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G67" s="6">
         <v>7.01</v>
       </c>
       <c r="H67" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B68" s="9" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>152</v>
-      </c>
       <c r="C68" s="4" t="s">
         <v>3</v>
       </c>
@@ -3635,21 +3629,21 @@
         <v>3</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G68" s="6">
         <v>7.0129999999999999</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="25.5">
       <c r="A69" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>3</v>
@@ -3664,15 +3658,15 @@
         <v>7.2439999999999998</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>2</v>
@@ -3684,21 +3678,21 @@
         <v>2</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G70" s="6">
         <v>8.1180000000000003</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>2</v>
@@ -3710,21 +3704,21 @@
         <v>2</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G71" s="6">
         <v>8.2560000000000002</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>2</v>
@@ -3736,21 +3730,21 @@
         <v>2</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G72" s="6">
         <v>8.2729999999999997</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>2</v>
@@ -3762,21 +3756,21 @@
         <v>2</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G73" s="6">
         <v>8.2729999999999997</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>2</v>
@@ -3788,21 +3782,21 @@
         <v>2</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G74" s="6">
         <v>8.2729999999999997</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>2</v>
@@ -3814,21 +3808,21 @@
         <v>2</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G75" s="6">
         <v>8.2729999999999997</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>2</v>
@@ -3840,21 +3834,21 @@
         <v>2</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G76" s="6">
         <v>8.2729999999999997</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>2</v>
@@ -3866,21 +3860,21 @@
         <v>2</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G77" s="6">
         <v>8.2729999999999997</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>2</v>
@@ -3892,21 +3886,21 @@
         <v>2</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G78" s="6">
         <v>8.2729999999999997</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>2</v>
@@ -3918,21 +3912,21 @@
         <v>2</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G79" s="6">
         <v>8.2729999999999997</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>2</v>
@@ -3944,21 +3938,21 @@
         <v>2</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G80" s="6">
         <v>8.3000000000000007</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>2</v>
@@ -3970,21 +3964,21 @@
         <v>2</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G81" s="6">
         <v>8.3089999999999993</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="25.5">
       <c r="A82" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>2</v>
@@ -3996,21 +3990,21 @@
         <v>3</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G82" s="6">
         <v>8.3190000000000008</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>3</v>
@@ -4022,21 +4016,21 @@
         <v>2</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G83" s="6">
         <v>10.454000000000001</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>3</v>
@@ -4048,21 +4042,21 @@
         <v>2</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G84" s="6">
         <v>10.432</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>2</v>
@@ -4074,21 +4068,21 @@
         <v>2</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G85" s="6">
         <v>11.092000000000001</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>2</v>
@@ -4100,21 +4094,21 @@
         <v>2</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G86" s="6">
         <v>11.095000000000001</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>2</v>
@@ -4126,21 +4120,21 @@
         <v>2</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G87" s="6">
         <v>11.106999999999999</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>2</v>
@@ -4152,21 +4146,21 @@
         <v>2</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G88" s="6">
         <v>11.106999999999999</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>2</v>
@@ -4178,21 +4172,21 @@
         <v>2</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G89" s="6">
         <v>11.143000000000001</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>2</v>
@@ -4204,21 +4198,21 @@
         <v>2</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G90" s="6">
         <v>11.144</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>3</v>
@@ -4230,21 +4224,21 @@
         <v>2</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G91" s="6">
         <v>11.221</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>3</v>
@@ -4256,21 +4250,21 @@
         <v>2</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G92" s="6">
         <v>11.247999999999999</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>3</v>
@@ -4282,21 +4276,21 @@
         <v>3</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G93" s="6">
         <v>11.298999999999999</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>3</v>
@@ -4308,21 +4302,21 @@
         <v>3</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G94" s="6">
         <v>11.298999999999999</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>3</v>
@@ -4334,21 +4328,21 @@
         <v>3</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G95" s="6">
         <v>11.298999999999999</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>3</v>
@@ -4360,21 +4354,21 @@
         <v>3</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G96" s="6">
         <v>11.298999999999999</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>3</v>
@@ -4386,21 +4380,21 @@
         <v>3</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G97" s="6">
         <v>11.298999999999999</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>3</v>
@@ -4412,21 +4406,21 @@
         <v>3</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G98" s="6">
         <v>11.298999999999999</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>3</v>
@@ -4438,21 +4432,21 @@
         <v>3</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G99" s="6">
         <v>11.298999999999999</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>3</v>
@@ -4464,21 +4458,21 @@
         <v>3</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G100" s="6">
         <v>11.298999999999999</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>3</v>
@@ -4490,21 +4484,21 @@
         <v>3</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G101" s="6">
         <v>11.298999999999999</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>2</v>
@@ -4516,21 +4510,21 @@
         <v>2</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G102" s="6">
         <v>11.32</v>
       </c>
       <c r="H102" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>2</v>
@@ -4542,21 +4536,21 @@
         <v>2</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G103" s="6">
         <v>11.321999999999999</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>2</v>
@@ -4568,21 +4562,21 @@
         <v>2</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G104" s="6">
         <v>11.327999999999999</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>2</v>
@@ -4594,21 +4588,21 @@
         <v>2</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G105" s="6">
         <v>11.327999999999999</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>2</v>
@@ -4620,21 +4614,21 @@
         <v>2</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G106" s="6">
         <v>11.334</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>2</v>
@@ -4646,21 +4640,21 @@
         <v>2</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G107" s="6">
         <v>11.334</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>2</v>
@@ -4672,21 +4666,21 @@
         <v>2</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G108" s="6">
         <v>11.337999999999999</v>
       </c>
       <c r="H108" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>2</v>
@@ -4698,21 +4692,21 @@
         <v>2</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G109" s="6">
         <v>11.42</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>2</v>
@@ -4724,21 +4718,21 @@
         <v>2</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G110" s="6">
         <v>11.422000000000001</v>
       </c>
       <c r="H110" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>2</v>
@@ -4750,21 +4744,21 @@
         <v>2</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G111" s="6">
         <v>11.422000000000001</v>
       </c>
       <c r="H111" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>2</v>
@@ -4776,21 +4770,21 @@
         <v>2</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G112" s="6">
         <v>11.423999999999999</v>
       </c>
       <c r="H112" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>2</v>
@@ -4802,21 +4796,21 @@
         <v>2</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G113" s="6">
         <v>11.426</v>
       </c>
       <c r="H113" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="25.5">
       <c r="A114" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>2</v>
@@ -4828,21 +4822,21 @@
         <v>2</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G114" s="6">
         <v>11.446</v>
       </c>
       <c r="H114" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>2</v>
@@ -4854,21 +4848,21 @@
         <v>2</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G115" s="6">
         <v>11.489000000000001</v>
       </c>
       <c r="H115" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>2</v>
@@ -4880,21 +4874,21 @@
         <v>2</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G116" s="6">
         <v>11.49</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>2</v>
@@ -4906,21 +4900,21 @@
         <v>2</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G117" s="6">
         <v>11.49</v>
       </c>
       <c r="H117" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>2</v>
@@ -4932,21 +4926,21 @@
         <v>2</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G118" s="6">
         <v>11.49</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>2</v>
@@ -4958,21 +4952,21 @@
         <v>2</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G119" s="6">
         <v>11.49</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>3</v>
@@ -4984,21 +4978,21 @@
         <v>3</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G120" s="6">
         <v>11.505000000000001</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>2</v>
@@ -5010,21 +5004,21 @@
         <v>2</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G121" s="6">
         <v>11.576000000000001</v>
       </c>
       <c r="H121" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>3</v>
@@ -5036,21 +5030,21 @@
         <v>3</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G122" s="6">
         <v>11.579000000000001</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>2</v>
@@ -5062,21 +5056,21 @@
         <v>2</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G123" s="6">
         <v>12.180999999999999</v>
       </c>
       <c r="H123" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>2</v>
@@ -5088,21 +5082,21 @@
         <v>2</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G124" s="6">
         <v>12.186999999999999</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>2</v>
@@ -5114,22 +5108,22 @@
         <v>2</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G125" s="6">
         <v>12.186999999999999</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B126" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="B126" s="9" t="s">
-        <v>240</v>
-      </c>
       <c r="C126" s="4" t="s">
         <v>2</v>
       </c>
@@ -5140,21 +5134,21 @@
         <v>2</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G126" s="6">
         <v>12.188000000000001</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>2</v>
@@ -5166,21 +5160,21 @@
         <v>2</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G127" s="6">
         <v>12.19</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>2</v>
@@ -5192,21 +5186,21 @@
         <v>2</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G128" s="6">
         <v>12.19</v>
       </c>
       <c r="H128" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>2</v>
@@ -5218,21 +5212,21 @@
         <v>2</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G129" s="6">
         <v>12.19</v>
       </c>
       <c r="H129" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>2</v>
@@ -5244,21 +5238,21 @@
         <v>2</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G130" s="6">
         <v>12.19</v>
       </c>
       <c r="H130" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>2</v>
@@ -5270,21 +5264,21 @@
         <v>2</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G131" s="6">
         <v>12.378</v>
       </c>
       <c r="H131" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>2</v>
@@ -5296,21 +5290,21 @@
         <v>2</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G132" s="6">
         <v>12.379</v>
       </c>
       <c r="H132" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>3</v>
@@ -5322,21 +5316,21 @@
         <v>3</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G133" s="6">
         <v>12.391999999999999</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="25.5">
       <c r="A134" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>2</v>
@@ -5351,15 +5345,15 @@
         <v>12.4</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>2</v>
@@ -5374,15 +5368,15 @@
         <v>13.154999999999999</v>
       </c>
       <c r="H135" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>2</v>
@@ -5394,21 +5388,21 @@
         <v>2</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G136" s="6">
         <v>13.186999999999999</v>
       </c>
       <c r="H136" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>3</v>
@@ -5420,22 +5414,22 @@
         <v>3</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G137" s="6">
         <v>13.183</v>
       </c>
       <c r="H137" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B138" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="B138" s="9" t="s">
-        <v>257</v>
-      </c>
       <c r="C138" s="4" t="s">
         <v>2</v>
       </c>
@@ -5446,21 +5440,21 @@
         <v>2</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G138" s="6">
         <v>13.369</v>
       </c>
       <c r="H138" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="25.5">
       <c r="A139" s="8" t="s">
-        <v>258</v>
+        <v>478</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>2</v>
@@ -5472,21 +5466,21 @@
         <v>2</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G139" s="6">
         <v>13.384</v>
       </c>
       <c r="H139" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>3</v>
@@ -5498,21 +5492,21 @@
         <v>3</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G140" s="6">
         <v>13.401999999999999</v>
       </c>
       <c r="H140" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>3</v>
@@ -5524,21 +5518,21 @@
         <v>2</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G141" s="6">
         <v>13.427</v>
       </c>
       <c r="H141" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>2</v>
@@ -5550,21 +5544,21 @@
         <v>2</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G142" s="6">
         <v>13.506</v>
       </c>
       <c r="H142" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>3</v>
@@ -5576,21 +5570,21 @@
         <v>3</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G143" s="6">
         <v>13.516</v>
       </c>
       <c r="H143" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>3</v>
@@ -5602,21 +5596,21 @@
         <v>2</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G144" s="6">
         <v>13.53</v>
       </c>
       <c r="H144" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>3</v>
@@ -5628,21 +5622,21 @@
         <v>3</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G145" s="6">
         <v>13.54</v>
       </c>
       <c r="H145" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>2</v>
@@ -5654,21 +5648,21 @@
         <v>2</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G146" s="6">
         <v>13.545</v>
       </c>
       <c r="H146" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>2</v>
@@ -5680,21 +5674,21 @@
         <v>2</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G147" s="6">
         <v>13.56</v>
       </c>
       <c r="H147" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>3</v>
@@ -5706,21 +5700,21 @@
         <v>3</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G148" s="6">
         <v>13.576000000000001</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>2</v>
@@ -5735,15 +5729,15 @@
         <v>13.581</v>
       </c>
       <c r="H149" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>3</v>
@@ -5755,21 +5749,21 @@
         <v>2</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G150" s="6">
         <v>13.615</v>
       </c>
       <c r="H150" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>2</v>
@@ -5781,21 +5775,21 @@
         <v>2</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G151" s="6">
         <v>13.65</v>
       </c>
       <c r="H151" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>3</v>
@@ -5807,21 +5801,21 @@
         <v>3</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G152" s="6">
         <v>13.66</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="25.5">
       <c r="A153" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>3</v>
@@ -5833,21 +5827,21 @@
         <v>2</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G153" s="6">
         <v>14.401999999999999</v>
       </c>
       <c r="H153" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>2</v>
@@ -5859,21 +5853,21 @@
         <v>2</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G154" s="6">
         <v>14.442</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>3</v>
@@ -5885,21 +5879,21 @@
         <v>3</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G155" s="6">
         <v>14.449</v>
       </c>
       <c r="H155" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>2</v>
@@ -5911,21 +5905,21 @@
         <v>2</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G156" s="6">
         <v>14.457000000000001</v>
       </c>
       <c r="H156" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>3</v>
@@ -5937,21 +5931,21 @@
         <v>3</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G157" s="6">
         <v>14.476000000000001</v>
       </c>
       <c r="H157" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>2</v>
@@ -5963,21 +5957,21 @@
         <v>2</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G158" s="6">
         <v>14.486000000000001</v>
       </c>
       <c r="H158" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>2</v>
@@ -5989,21 +5983,21 @@
         <v>2</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G159" s="6">
         <v>14.510999999999999</v>
       </c>
       <c r="H159" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>2</v>
@@ -6015,21 +6009,21 @@
         <v>2</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G160" s="6">
         <v>14.513</v>
       </c>
       <c r="H160" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>2</v>
@@ -6041,21 +6035,21 @@
         <v>2</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G161" s="6">
         <v>14.513</v>
       </c>
       <c r="H161" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>2</v>
@@ -6067,21 +6061,21 @@
         <v>2</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G162" s="6">
         <v>14.513</v>
       </c>
       <c r="H162" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>2</v>
@@ -6093,21 +6087,21 @@
         <v>2</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G163" s="6">
         <v>14.513</v>
       </c>
       <c r="H163" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>2</v>
@@ -6119,21 +6113,21 @@
         <v>2</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G164" s="6">
         <v>14.513999999999999</v>
       </c>
       <c r="H164" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>2</v>
@@ -6145,21 +6139,21 @@
         <v>2</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G165" s="6">
         <v>14.513999999999999</v>
       </c>
       <c r="H165" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>2</v>
@@ -6171,21 +6165,21 @@
         <v>2</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G166" s="6">
         <v>14.515000000000001</v>
       </c>
       <c r="H166" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>3</v>
@@ -6197,21 +6191,21 @@
         <v>3</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G167" s="6">
         <v>15.327999999999999</v>
       </c>
       <c r="H167" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>3</v>
@@ -6223,21 +6217,21 @@
         <v>3</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G168" s="6">
         <v>15.327999999999999</v>
       </c>
       <c r="H168" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>3</v>
@@ -6249,21 +6243,21 @@
         <v>3</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G169" s="6">
         <v>15.332000000000001</v>
       </c>
       <c r="H169" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>3</v>
@@ -6275,21 +6269,21 @@
         <v>3</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G170" s="6">
         <v>15.332000000000001</v>
       </c>
       <c r="H170" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>3</v>
@@ -6301,21 +6295,21 @@
         <v>3</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G171" s="6">
         <v>15.339</v>
       </c>
       <c r="H171" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>3</v>
@@ -6327,21 +6321,21 @@
         <v>3</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G172" s="6">
         <v>15.339</v>
       </c>
       <c r="H172" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>3</v>
@@ -6353,21 +6347,21 @@
         <v>3</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G173" s="6">
         <v>15.34</v>
       </c>
       <c r="H173" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>3</v>
@@ -6379,21 +6373,21 @@
         <v>3</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G174" s="6">
         <v>15.340999999999999</v>
       </c>
       <c r="H174" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>2</v>
@@ -6405,21 +6399,21 @@
         <v>2</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G175" s="6">
         <v>15.419</v>
       </c>
       <c r="H175" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>3</v>
@@ -6431,21 +6425,21 @@
         <v>3</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G176" s="6">
         <v>15.429</v>
       </c>
       <c r="H176" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>2</v>
@@ -6457,21 +6451,21 @@
         <v>2</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G177" s="6">
         <v>15.442</v>
       </c>
       <c r="H177" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>3</v>
@@ -6483,21 +6477,21 @@
         <v>3</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G178" s="6">
         <v>15.515000000000001</v>
       </c>
       <c r="H178" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>2</v>
@@ -6509,21 +6503,21 @@
         <v>2</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G179" s="6">
         <v>15.516</v>
       </c>
       <c r="H179" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>3</v>
@@ -6535,21 +6529,21 @@
         <v>3</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G180" s="6">
         <v>15.518000000000001</v>
       </c>
       <c r="H180" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>2</v>
@@ -6561,21 +6555,21 @@
         <v>2</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G181" s="6">
         <v>15.52</v>
       </c>
       <c r="H181" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>3</v>
@@ -6587,21 +6581,21 @@
         <v>2</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G182" s="6">
         <v>15.54</v>
       </c>
       <c r="H182" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>2</v>
@@ -6613,21 +6607,21 @@
         <v>2</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G183" s="6">
         <v>15.576000000000001</v>
       </c>
       <c r="H183" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>3</v>
@@ -6639,21 +6633,21 @@
         <v>3</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G184" s="6">
         <v>15.638</v>
       </c>
       <c r="H184" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="25.5">
       <c r="A185" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>3</v>
@@ -6665,21 +6659,21 @@
         <v>3</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G185" s="6">
         <v>16.114000000000001</v>
       </c>
       <c r="H185" s="15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>2</v>
@@ -6691,21 +6685,21 @@
         <v>2</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G186" s="6">
         <v>16.283999999999999</v>
       </c>
       <c r="H186" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>2</v>
@@ -6717,21 +6711,21 @@
         <v>2</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G187" s="6">
         <v>16.306000000000001</v>
       </c>
       <c r="H187" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>2</v>
@@ -6743,21 +6737,21 @@
         <v>2</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G188" s="6">
         <v>16.311</v>
       </c>
       <c r="H188" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>2</v>
@@ -6769,21 +6763,21 @@
         <v>2</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G189" s="6">
         <v>16.312999999999999</v>
       </c>
       <c r="H189" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>2</v>
@@ -6795,21 +6789,21 @@
         <v>2</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G190" s="6">
         <v>16.317</v>
       </c>
       <c r="H190" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>3</v>
@@ -6821,21 +6815,21 @@
         <v>2</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G191" s="6">
         <v>16.321000000000002</v>
       </c>
       <c r="H191" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>2</v>
@@ -6847,21 +6841,21 @@
         <v>2</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G192" s="6">
         <v>16.329999999999998</v>
       </c>
       <c r="H192" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>2</v>
@@ -6873,21 +6867,21 @@
         <v>2</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G193" s="6">
         <v>16.334</v>
       </c>
       <c r="H193" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>2</v>
@@ -6899,21 +6893,21 @@
         <v>2</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G194" s="6">
         <v>16.341999999999999</v>
       </c>
       <c r="H194" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>2</v>
@@ -6925,21 +6919,21 @@
         <v>2</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G195" s="6">
         <v>16.344999999999999</v>
       </c>
       <c r="H195" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>2</v>
@@ -6951,21 +6945,21 @@
         <v>2</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G196" s="6">
         <v>16.399000000000001</v>
       </c>
       <c r="H196" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>2</v>
@@ -6977,21 +6971,21 @@
         <v>2</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G197" s="6">
         <v>16.404</v>
       </c>
       <c r="H197" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>2</v>
@@ -7003,21 +6997,21 @@
         <v>2</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G198" s="6">
         <v>16.411000000000001</v>
       </c>
       <c r="H198" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>2</v>
@@ -7029,21 +7023,21 @@
         <v>2</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G199" s="6">
         <v>16.414999999999999</v>
       </c>
       <c r="H199" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>2</v>
@@ -7055,21 +7049,21 @@
         <v>2</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G200" s="6">
         <v>16.414999999999999</v>
       </c>
       <c r="H200" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>2</v>
@@ -7081,21 +7075,21 @@
         <v>2</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G201" s="6">
         <v>16.414999999999999</v>
       </c>
       <c r="H201" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>2</v>
@@ -7107,21 +7101,21 @@
         <v>2</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G202" s="6">
         <v>16.414999999999999</v>
       </c>
       <c r="H202" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>2</v>
@@ -7133,21 +7127,21 @@
         <v>2</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G203" s="6">
         <v>16.414999999999999</v>
       </c>
       <c r="H203" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>2</v>
@@ -7159,21 +7153,21 @@
         <v>2</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G204" s="6">
         <v>16.414999999999999</v>
       </c>
       <c r="H204" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>2</v>
@@ -7185,21 +7179,21 @@
         <v>2</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G205" s="6">
         <v>16.414999999999999</v>
       </c>
       <c r="H205" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>2</v>
@@ -7211,21 +7205,21 @@
         <v>2</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G206" s="6">
         <v>16.414999999999999</v>
       </c>
       <c r="H206" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>2</v>
@@ -7237,21 +7231,21 @@
         <v>2</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G207" s="6">
         <v>16.414999999999999</v>
       </c>
       <c r="H207" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>2</v>
@@ -7263,21 +7257,21 @@
         <v>2</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G208" s="6">
         <v>16.462</v>
       </c>
       <c r="H208" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>2</v>
@@ -7289,21 +7283,21 @@
         <v>2</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G209" s="6">
         <v>16.466000000000001</v>
       </c>
       <c r="H209" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>2</v>
@@ -7315,21 +7309,21 @@
         <v>3</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G210" s="6">
         <v>16.57</v>
       </c>
       <c r="H210" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>2</v>
@@ -7341,21 +7335,21 @@
         <v>2</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G211" s="6">
         <v>16.585999999999999</v>
       </c>
       <c r="H211" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="8" t="s">
-        <v>481</v>
+        <v>145</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>3</v>
@@ -7367,21 +7361,21 @@
         <v>3</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G212" s="6">
         <v>16.597000000000001</v>
       </c>
       <c r="H212" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>2</v>
@@ -7393,21 +7387,21 @@
         <v>2</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G213" s="6">
         <v>16.603000000000002</v>
       </c>
       <c r="H213" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>2</v>
@@ -7419,21 +7413,21 @@
         <v>2</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G214" s="6">
         <v>16.693000000000001</v>
       </c>
       <c r="H214" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>2</v>
@@ -7445,21 +7439,21 @@
         <v>2</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G215" s="6">
         <v>16.693000000000001</v>
       </c>
       <c r="H215" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>2</v>
@@ -7471,21 +7465,21 @@
         <v>2</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G216" s="6">
         <v>16.693000000000001</v>
       </c>
       <c r="H216" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="217" spans="1:8">
       <c r="A217" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>2</v>
@@ -7497,21 +7491,21 @@
         <v>2</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G217" s="6">
         <v>16.693000000000001</v>
       </c>
       <c r="H217" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="218" spans="1:8">
       <c r="A218" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>2</v>
@@ -7523,21 +7517,21 @@
         <v>2</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G218" s="6">
         <v>16.693000000000001</v>
       </c>
       <c r="H218" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="219" spans="1:8">
       <c r="A219" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>2</v>
@@ -7549,21 +7543,21 @@
         <v>2</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G219" s="6">
         <v>16.693000000000001</v>
       </c>
       <c r="H219" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>2</v>
@@ -7575,21 +7569,21 @@
         <v>2</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G220" s="6">
         <v>16.693000000000001</v>
       </c>
       <c r="H220" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>2</v>
@@ -7601,21 +7595,21 @@
         <v>2</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G221" s="6">
         <v>16.693000000000001</v>
       </c>
       <c r="H221" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>2</v>
@@ -7627,21 +7621,21 @@
         <v>2</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G222" s="6">
         <v>16.693000000000001</v>
       </c>
       <c r="H222" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>2</v>
@@ -7653,47 +7647,47 @@
         <v>2</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G223" s="6">
         <v>16.733000000000001</v>
       </c>
       <c r="H223" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="27" customHeight="1">
       <c r="A224" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>407</v>
+        <v>477</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G224" s="6">
         <v>16.783000000000001</v>
       </c>
       <c r="H224" s="9" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>2</v>
@@ -7705,21 +7699,21 @@
         <v>2</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G225" s="6">
         <v>17.042999999999999</v>
       </c>
       <c r="H225" s="9" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>2</v>
@@ -7731,21 +7725,21 @@
         <v>2</v>
       </c>
       <c r="F226" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G226" s="6">
         <v>17.288</v>
       </c>
       <c r="H226" s="9" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="25.5">
       <c r="A227" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>3</v>
@@ -7757,21 +7751,21 @@
         <v>3</v>
       </c>
       <c r="F227" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G227" s="6">
         <v>17.303999999999998</v>
       </c>
       <c r="H227" s="9" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>2</v>
@@ -7783,21 +7777,21 @@
         <v>2</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G228" s="6">
         <v>17.312000000000001</v>
       </c>
       <c r="H228" s="9" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>3</v>
@@ -7809,21 +7803,21 @@
         <v>3</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G229" s="6">
         <v>17.344000000000001</v>
       </c>
       <c r="H229" s="9" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="10" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>2</v>
@@ -7835,21 +7829,21 @@
         <v>2</v>
       </c>
       <c r="F230" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G230" s="6">
         <v>17.346</v>
       </c>
       <c r="H230" s="9" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="10" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>2</v>
@@ -7861,21 +7855,21 @@
         <v>2</v>
       </c>
       <c r="F231" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G231" s="6">
         <v>17.515000000000001</v>
       </c>
       <c r="H231" s="9" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>2</v>
@@ -7887,21 +7881,21 @@
         <v>2</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G232" s="6">
         <v>17.574999999999999</v>
       </c>
       <c r="H232" s="9" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>2</v>
@@ -7913,21 +7907,21 @@
         <v>3</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G233" s="6">
         <v>17.597000000000001</v>
       </c>
       <c r="H233" s="9" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>3</v>
@@ -7939,21 +7933,21 @@
         <v>3</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G234" s="6">
         <v>17.600999999999999</v>
       </c>
       <c r="H234" s="9" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>3</v>
@@ -7965,21 +7959,21 @@
         <v>3</v>
       </c>
       <c r="F235" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G235" s="6">
         <v>17.611000000000001</v>
       </c>
       <c r="H235" s="9" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="25.5">
       <c r="A236" s="10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>2</v>
@@ -7994,15 +7988,15 @@
         <v>20.318000000000001</v>
       </c>
       <c r="H236" s="9" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>2</v>
@@ -8014,21 +8008,21 @@
         <v>2</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G237" s="6">
         <v>20.381</v>
       </c>
       <c r="H237" s="9" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>2</v>
@@ -8040,21 +8034,21 @@
         <v>2</v>
       </c>
       <c r="F238" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G238" s="6">
         <v>20.395</v>
       </c>
       <c r="H238" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>2</v>
@@ -8066,21 +8060,21 @@
         <v>2</v>
       </c>
       <c r="F239" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G239" s="6">
         <v>20.401</v>
       </c>
       <c r="H239" s="9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>2</v>
@@ -8092,21 +8086,21 @@
         <v>2</v>
       </c>
       <c r="F240" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G240" s="6">
         <v>20.407</v>
       </c>
       <c r="H240" s="9" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>2</v>
@@ -8121,15 +8115,15 @@
         <v>20.437999999999999</v>
       </c>
       <c r="H241" s="9" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>2</v>
@@ -8141,21 +8135,21 @@
         <v>2</v>
       </c>
       <c r="F242" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G242" s="6">
         <v>20.454999999999998</v>
       </c>
       <c r="H242" s="9" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>2</v>
@@ -8167,21 +8161,21 @@
         <v>2</v>
       </c>
       <c r="F243" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G243" s="6">
         <v>20.457000000000001</v>
       </c>
       <c r="H243" s="9" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>2</v>
@@ -8193,21 +8187,21 @@
         <v>2</v>
       </c>
       <c r="F244" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G244" s="6">
         <v>20.465</v>
       </c>
       <c r="H244" s="9" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>2</v>
@@ -8219,21 +8213,21 @@
         <v>2</v>
       </c>
       <c r="F245" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G245" s="6">
         <v>20.472000000000001</v>
       </c>
       <c r="H245" s="9" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>2</v>
@@ -8245,21 +8239,21 @@
         <v>2</v>
       </c>
       <c r="F246" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G246" s="6">
         <v>20.474</v>
       </c>
       <c r="H246" s="9" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>2</v>
@@ -8271,21 +8265,21 @@
         <v>2</v>
       </c>
       <c r="F247" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G247" s="6">
         <v>20.477</v>
       </c>
       <c r="H247" s="9" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>2</v>
@@ -8297,21 +8291,21 @@
         <v>2</v>
       </c>
       <c r="F248" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G248" s="6">
         <v>20.484000000000002</v>
       </c>
       <c r="H248" s="9" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>2</v>
@@ -8323,21 +8317,21 @@
         <v>2</v>
       </c>
       <c r="F249" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G249" s="6">
         <v>20.486999999999998</v>
       </c>
       <c r="H249" s="9" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>2</v>
@@ -8349,21 +8343,21 @@
         <v>2</v>
       </c>
       <c r="F250" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G250" s="6">
         <v>21.114000000000001</v>
       </c>
       <c r="H250" s="9" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>2</v>
@@ -8375,21 +8369,21 @@
         <v>2</v>
       </c>
       <c r="F251" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G251" s="6">
         <v>21.178999999999998</v>
       </c>
       <c r="H251" s="9" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>2</v>
@@ -8401,21 +8395,21 @@
         <v>2</v>
       </c>
       <c r="F252" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G252" s="6">
         <v>21.209</v>
       </c>
       <c r="H252" s="9" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>2</v>
@@ -8427,21 +8421,21 @@
         <v>2</v>
       </c>
       <c r="F253" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G253" s="6">
         <v>21.209</v>
       </c>
       <c r="H253" s="9" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>2</v>
@@ -8453,21 +8447,21 @@
         <v>2</v>
       </c>
       <c r="F254" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G254" s="6">
         <v>21.209</v>
       </c>
       <c r="H254" s="9" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>2</v>
@@ -8479,21 +8473,21 @@
         <v>2</v>
       </c>
       <c r="F255" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G255" s="6">
         <v>21.209</v>
       </c>
       <c r="H255" s="9" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="256" spans="1:8">
       <c r="A256" s="10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B256" s="9" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>2</v>
@@ -8505,21 +8499,21 @@
         <v>2</v>
       </c>
       <c r="F256" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G256" s="6">
         <v>21.209</v>
       </c>
       <c r="H256" s="9" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="257" spans="1:8">
       <c r="A257" s="10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B257" s="9" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>2</v>
@@ -8531,21 +8525,21 @@
         <v>2</v>
       </c>
       <c r="F257" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G257" s="6">
         <v>21.209</v>
       </c>
       <c r="H257" s="9" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="258" spans="1:8">
       <c r="A258" s="10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>2</v>
@@ -8557,122 +8551,122 @@
         <v>2</v>
       </c>
       <c r="F258" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G258" s="6">
         <v>21.209</v>
       </c>
       <c r="H258" s="9" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="259" spans="1:8" ht="25.5">
       <c r="A259" s="9" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E259" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F259" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G259" s="6">
         <v>21.341999999999999</v>
       </c>
       <c r="H259" s="9" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="260" spans="1:8">
       <c r="A260" s="10" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F260" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G260" s="6">
         <v>21.402000000000001</v>
       </c>
       <c r="H260" s="9" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="261" spans="1:8">
       <c r="A261" s="10" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F261" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G261" s="6">
         <v>21.422999999999998</v>
       </c>
       <c r="H261" s="9" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="262" spans="1:8">
       <c r="A262" s="10" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B262" s="9" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F262" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G262" s="6">
         <v>21.489000000000001</v>
       </c>
       <c r="H262" s="9" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="263" spans="1:8" ht="25.5">
       <c r="A263" s="10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>2</v>
@@ -8687,15 +8681,15 @@
         <v>21.59</v>
       </c>
       <c r="H263" s="9" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="264" spans="1:8" ht="27" customHeight="1">
       <c r="A264" s="10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>2</v>
@@ -8707,13 +8701,13 @@
         <v>2</v>
       </c>
       <c r="F264" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G264" s="6">
         <v>22.306000000000001</v>
       </c>
       <c r="H264" s="9" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="272" spans="1:8">
